--- a/AudioPalace/Content/Sheet/File.xlsx
+++ b/AudioPalace/Content/Sheet/File.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>SubCategoryCode</t>
   </si>
@@ -24,32 +24,50 @@
     <t>ProductCode</t>
   </si>
   <si>
+    <t>MobileNo</t>
+  </si>
+  <si>
+    <t>TxnDate</t>
+  </si>
+  <si>
+    <t>CategoryCode</t>
+  </si>
+  <si>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>SubCategoryName</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>ProductCount</t>
+  </si>
+  <si>
     <t>OutletCode</t>
   </si>
   <si>
-    <t>MobileNo</t>
-  </si>
-  <si>
-    <t>TxnDate</t>
-  </si>
-  <si>
-    <t>CategoryCode</t>
-  </si>
-  <si>
-    <t>InvoiceAmount</t>
+    <t>InvoiceAmt </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,8 +90,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,36 +406,52 @@
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="5" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/AudioPalace/Content/Sheet/File.xlsx
+++ b/AudioPalace/Content/Sheet/File.xlsx
@@ -48,7 +48,7 @@
     <t>OutletCode</t>
   </si>
   <si>
-    <t>InvoiceAmt </t>
+    <t>InvoiceAmt</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AudioPalace/Content/Sheet/File.xlsx
+++ b/AudioPalace/Content/Sheet/File.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>SubCategoryCode</t>
   </si>
@@ -31,15 +31,6 @@
   </si>
   <si>
     <t>CategoryCode</t>
-  </si>
-  <si>
-    <t>CategoryName</t>
-  </si>
-  <si>
-    <t>SubCategoryName</t>
-  </si>
-  <si>
-    <t>ProductName</t>
   </si>
   <si>
     <t>ProductCount</t>
@@ -394,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,17 +397,15 @@
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -428,25 +417,16 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/AudioPalace/Content/Sheet/File.xlsx
+++ b/AudioPalace/Content/Sheet/File.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>SubCategoryCode</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>InvoiceAmt</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
   </si>
 </sst>
 </file>
@@ -385,25 +388,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="2" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -411,21 +414,24 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
